--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -26,7 +26,7 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Código</t>
+    <t>Codigo</t>
   </si>
   <si>
     <t>Precio</t>
@@ -35,7 +35,7 @@
     <t>Promocionar</t>
   </si>
   <si>
-    <t>Características</t>
+    <t>Caracteristicas</t>
   </si>
   <si>
     <t>Manuales</t>
@@ -102,10 +102,10 @@
     <t>14.99</t>
   </si>
   <si>
-    <t>Eléctricas</t>
-  </si>
-  <si>
-    <t>Fijación</t>
+    <t>Electricas</t>
+  </si>
+  <si>
+    <t>Fijacion</t>
   </si>
   <si>
     <t>HPW0816</t>
@@ -159,10 +159,10 @@
     <t>Copas</t>
   </si>
   <si>
-    <t>Medición</t>
-  </si>
-  <si>
-    <t>Cinta métrica</t>
+    <t>Medicion</t>
+  </si>
+  <si>
+    <t>Cinta metrica</t>
   </si>
   <si>
     <t>Nivel</t>
@@ -171,7 +171,7 @@
     <t>Detector de corriente</t>
   </si>
   <si>
-    <t>Elevación</t>
+    <t>Elevacion</t>
   </si>
   <si>
     <t>Gatas</t>
@@ -207,7 +207,7 @@
     <t>Dados</t>
   </si>
   <si>
-    <t>Espátulas y bailejos</t>
+    <t>Espatulas y bailejos</t>
   </si>
   <si>
     <t>Rodillos</t>
@@ -246,10 +246,10 @@
     <t>Caja herramientas</t>
   </si>
   <si>
-    <t>Automotríz</t>
-  </si>
-  <si>
-    <t>Neumáticas</t>
+    <t>Automotriz</t>
+  </si>
+  <si>
+    <t>Neumaticas</t>
   </si>
   <si>
     <t>Estacionarias</t>
@@ -267,10 +267,10 @@
     <t>Hidrolavadoras</t>
   </si>
   <si>
-    <t>Jardinería</t>
-  </si>
-  <si>
-    <t>Iluminación</t>
+    <t>Jardineria</t>
+  </si>
+  <si>
+    <t>Iluminacion</t>
   </si>
   <si>
     <t>Cuchillas</t>
@@ -279,7 +279,7 @@
     <t>Calibrador</t>
   </si>
   <si>
-    <t>Electrónica</t>
+    <t>Electronica</t>
   </si>
   <si>
     <t>Protectores auditivos</t>
@@ -6677,12 +6677,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A2:A20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -117,7 +117,7 @@
     <t>Corte</t>
   </si>
   <si>
-    <t>PINZA UNIVERSAL 6"</t>
+    <t>PINZA UNIVERSAL 6in.</t>
   </si>
   <si>
     <t>HPW0817</t>
@@ -138,7 +138,7 @@
     <t>Acabados</t>
   </si>
   <si>
-    <t>AMOLADORA DE BANCO 8"</t>
+    <t>AMOLADORA DE BANCO 8in.</t>
   </si>
   <si>
     <t>HPW0819</t>
